--- a/pred_ohlcv/54_21/2019-10-26 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 REP ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1376.594623133071</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1415.051623133071</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1359.227823133072</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1409.104023133071</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1447.658923133072</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1448.538923133072</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1453.232223133072</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>352.5986231330716</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>349.0476231330716</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>195.8004231330716</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>193.4745231330716</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>160.0909231330716</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>135.0909231330716</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>110.0409231330716</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>99.85822313307159</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>216.3434231330716</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>348.5210231330716</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>373.5210231330716</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>412.5987607883931</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>913.5987607883931</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>778.458760788393</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>707.870860788393</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>29.16546078839292</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>29.26546078839292</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4004.71647663552</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5364.79867663552</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>4832.13557663552</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>4755.33557663552</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4195.16827663552</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3920.48777663552</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3916.99417663552</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3906.29507663552</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3976.55107663552</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3671.04547663552</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1284.247194346552</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1294.580494346552</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1216.112794346552</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1187.734894346552</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1173.398594346552</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-775.9308078666674</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-833.5211078666673</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-375.8955078666674</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-327.5550824623899</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-571.0377824623898</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-723.4604824623898</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-571.8998824623898</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-652.8998824623898</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-620.2645824623897</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-581.0304824623897</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-658.4707824623897</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>63.28111753761038</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1156.665823133071</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1330.937523133071</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1481.664623133071</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1376.594623133071</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1415.051623133071</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1359.227823133072</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1409.104023133071</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1612.388323133071</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1447.658923133072</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1448.538923133072</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1453.232223133072</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>352.5986231330716</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>349.0476231330716</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>195.8004231330716</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>193.4745231330716</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>160.0909231330716</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>135.0909231330716</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>101.8582231330716</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>99.85822313307159</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>216.3434231330716</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>348.5210231330716</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>913.5987607883931</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>778.458760788393</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>891.3656607883929</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>707.870860788393</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>29.16546078839292</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>29.26546078839292</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-268.182539211607</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-274.622637085871</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-285.622637085871</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-266.431537085871</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>4705.59967663552</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>5364.79867663552</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>4832.13557663552</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>4755.33557663552</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4195.16827663552</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3920.48777663552</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3916.99417663552</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3671.04547663552</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3518.17857663552</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1216.112794346552</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1187.734894346552</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1173.398594346552</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1539.57542518167</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1539.57542518167</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1445.51262518167</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1357.459031101332</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-956.4253283674499</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1067.16302836745</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1066.16302836745</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1185.11332836745</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1175.11332836745</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1252.12422836745</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1367.49312836745</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1367.27872836745</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1399.74972836745</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1417.26972836745</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1465.79762836745</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1465.897628367449</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1440.197628367449</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1483.318128367449</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1290.309628367449</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1323.758028367449</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1340.66802836745</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1512.53772836745</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1464.41342836745</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1477.243428367449</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1524.70042836745</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1518.58042836745</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1518.58042836745</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1544.30042836745</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1285.54002836745</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-719.5368078666673</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-865.6938078666674</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-822.2187078666674</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-785.9308078666674</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-775.9308078666674</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-833.5211078666673</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-849.3865078666673</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-520.3903078666674</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-375.8955078666674</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-327.5550824623899</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-571.0377824623898</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-723.4604824623898</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-571.8998824623898</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-652.8998824623898</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-620.2645824623897</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-581.0304824623897</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-658.4707824623897</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-767.4788824623896</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>63.28111753761038</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
